--- a/Data/Ball_Valve/pitch015/Summary_pitch015.xlsx
+++ b/Data/Ball_Valve/pitch015/Summary_pitch015.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\udaka\Documents\GitHub\Object_Rec_Pose_Est\Data\Ball_Valve\pitch015\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0A376A-352B-4F0F-8111-DA8107F1A907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D123BF04-220F-4700-BFBD-14EE13062F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="4" r:id="rId1"/>
@@ -89,21 +89,6 @@
     <t>SD</t>
   </si>
   <si>
-    <t>Pitch 0</t>
-  </si>
-  <si>
-    <t>Pitch 15</t>
-  </si>
-  <si>
-    <t>Pitch 30</t>
-  </si>
-  <si>
-    <t>Pitch 45</t>
-  </si>
-  <si>
-    <t>Pitch 60</t>
-  </si>
-  <si>
     <t>Yaw -060</t>
   </si>
   <si>
@@ -384,6 +369,21 @@
   </si>
   <si>
     <t>2024-08-12 13:29:56</t>
+  </si>
+  <si>
+    <t>Yaw 0</t>
+  </si>
+  <si>
+    <t>Yaw 15</t>
+  </si>
+  <si>
+    <t>Yaw 30</t>
+  </si>
+  <si>
+    <t>Yaw 45</t>
+  </si>
+  <si>
+    <t>Yaw 60</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -502,8 +502,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -787,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E722222-A6EB-4181-BA6F-53C1ABAE2258}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,7 +839,7 @@
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>0.13023517832034301</v>
@@ -870,7 +868,7 @@
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>0.159430324566984</v>
@@ -899,7 +897,7 @@
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>2.4730486239623199E-2</v>
@@ -928,7 +926,7 @@
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>1.75794740050924E-2</v>
@@ -957,7 +955,7 @@
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="B7">
         <v>1.21660678302953E-2</v>
@@ -986,7 +984,7 @@
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="B8" s="11">
         <v>1.3527436055454801E-2</v>
@@ -1015,7 +1013,7 @@
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="B9" s="11">
         <v>2.9893621091449999E-2</v>
@@ -1044,36 +1042,36 @@
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="16">
+        <v>111</v>
+      </c>
+      <c r="B10" s="11">
         <v>1.9612090755957299E-2</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="11">
         <v>1.3066033636877E-2</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="11">
         <v>2.9089353481987199E-2</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="11">
         <v>5.3819689375309097E-3</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="11">
         <v>30.8395115</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="11">
         <v>29.430553</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="11">
         <v>31.961876</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="11">
         <v>0.79229495504224101</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="B11">
         <v>5.0019070178976402E-2</v>
@@ -1151,7 +1149,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C3">
         <v>19.919041</v>
@@ -1165,7 +1163,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C4">
         <v>20.111182999999997</v>
@@ -1179,7 +1177,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C5">
         <v>19.121422000000003</v>
@@ -1193,7 +1191,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C6">
         <v>19.821575000000003</v>
@@ -1207,7 +1205,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C7">
         <v>20.261077999999998</v>
@@ -1221,7 +1219,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C8">
         <v>17.408672000000003</v>
@@ -1235,7 +1233,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C9">
         <v>21.708354999999997</v>
@@ -1249,7 +1247,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C10">
         <v>20.227710999999999</v>
@@ -1263,7 +1261,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C11">
         <v>20.670338000000001</v>
@@ -1277,7 +1275,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C12">
         <v>22.060211000000002</v>
@@ -1350,7 +1348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22310BC-2FD1-4F70-832B-B57FD9DAB532}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -1388,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C3">
         <v>14.093990000000002</v>
@@ -1402,7 +1400,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C4">
         <v>7.0209849999999996</v>
@@ -1416,7 +1414,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C5">
         <v>4.4760969999999993</v>
@@ -1430,7 +1428,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C6">
         <v>21.268645999999997</v>
@@ -1444,7 +1442,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C7">
         <v>107.556602</v>
@@ -1458,7 +1456,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C8">
         <v>17.033709999999999</v>
@@ -1472,7 +1470,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C9">
         <v>108.157982</v>
@@ -1486,7 +1484,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C10">
         <v>30.634079</v>
@@ -1500,7 +1498,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C11">
         <v>7.7322430000000004</v>
@@ -1514,7 +1512,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C12">
         <v>11.896813999999999</v>
@@ -1626,7 +1624,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C3">
         <v>116.323151</v>
@@ -1640,7 +1638,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C4">
         <v>116.907104</v>
@@ -1654,7 +1652,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C5">
         <v>116.859207</v>
@@ -1668,7 +1666,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C6">
         <v>18.181355000000003</v>
@@ -1682,7 +1680,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C7">
         <v>30.278506999999998</v>
@@ -1696,7 +1694,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C8">
         <v>119.513443</v>
@@ -1710,7 +1708,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C9">
         <v>10.094608000000001</v>
@@ -1724,7 +1722,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C10">
         <v>117.74288899999999</v>
@@ -1738,7 +1736,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C11">
         <v>119.167374</v>
@@ -1752,7 +1750,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C12">
         <v>116.01618999999999</v>
@@ -1864,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C3">
         <v>18.052768999999998</v>
@@ -1878,7 +1876,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C4">
         <v>14.451052000000001</v>
@@ -1892,7 +1890,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C5">
         <v>14.324494999999999</v>
@@ -1906,7 +1904,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C6">
         <v>15.853892999999999</v>
@@ -1920,7 +1918,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C7">
         <v>16.189139999999998</v>
@@ -1934,7 +1932,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C8">
         <v>13.89085</v>
@@ -1948,7 +1946,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C9">
         <v>11.419853</v>
@@ -1962,7 +1960,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C10">
         <v>17.037990999999998</v>
@@ -1976,7 +1974,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C11">
         <v>15.187252000000001</v>
@@ -1990,7 +1988,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C12">
         <v>14.286777000000001</v>
@@ -2102,7 +2100,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C3">
         <v>1.1910190000000007</v>
@@ -2116,7 +2114,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C4">
         <v>6.8507919999999984</v>
@@ -2130,7 +2128,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C5">
         <v>4.2618430000000007</v>
@@ -2144,7 +2142,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C6">
         <v>0.4291999999999998</v>
@@ -2158,7 +2156,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C7">
         <v>1.6665039999999998</v>
@@ -2172,7 +2170,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C8">
         <v>1.3722880000000011</v>
@@ -2186,7 +2184,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C9">
         <v>0.96768100000000068</v>
@@ -2200,7 +2198,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C10">
         <v>1.8525939999999999</v>
@@ -2214,7 +2212,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C11">
         <v>8.3055109999999992</v>
@@ -2228,7 +2226,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C12">
         <v>0.18390800000000063</v>
@@ -2339,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C3">
         <v>3.4658350000000002</v>
@@ -2353,7 +2351,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C4">
         <v>12.486039999999999</v>
@@ -2367,7 +2365,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>10.391935</v>
@@ -2381,7 +2379,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C6">
         <v>14.296957000000001</v>
@@ -2395,7 +2393,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C7">
         <v>7.5972619999999997</v>
@@ -2409,7 +2407,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C8">
         <v>5.7393789999999996</v>
@@ -2423,7 +2421,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C9">
         <v>10.340994</v>
@@ -2437,7 +2435,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C10">
         <v>2.2473729999999996</v>
@@ -2451,7 +2449,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C11">
         <v>7.650436</v>
@@ -2465,7 +2463,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C12">
         <v>3.0258050000000001</v>
@@ -2575,7 +2573,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>5.4219999999999997E-3</v>
@@ -2589,7 +2587,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <v>1.267317</v>
@@ -2603,7 +2601,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>1.903419</v>
@@ -2617,7 +2615,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>2.6624279999999998</v>
@@ -2631,7 +2629,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>2.5170309999999998</v>
@@ -2645,7 +2643,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C8">
         <v>1.982159</v>
@@ -2659,7 +2657,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C9">
         <v>0.82827300000000004</v>
@@ -2673,7 +2671,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>2.3010920000000001</v>
@@ -2687,7 +2685,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C11">
         <v>1.825018</v>
@@ -2701,7 +2699,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C12">
         <v>1.4652369999999999</v>
@@ -2812,7 +2810,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C3" s="11">
         <v>15.896862</v>
@@ -2826,7 +2824,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C4" s="11">
         <v>14.982191</v>
@@ -2840,7 +2838,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C5" s="11">
         <v>15.666404999999999</v>
@@ -2854,7 +2852,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C6" s="11">
         <v>14.729483</v>
@@ -2868,7 +2866,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C7" s="11">
         <v>16.130009000000001</v>
@@ -2882,7 +2880,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C8" s="11">
         <v>15.393272</v>
@@ -2896,7 +2894,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C9" s="11">
         <v>14.098698000000001</v>
@@ -2910,7 +2908,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C10" s="11">
         <v>13.534905999999999</v>
@@ -2924,7 +2922,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C11" s="11">
         <v>17.317592999999999</v>
@@ -2938,7 +2936,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C12" s="11">
         <v>14.133562</v>
@@ -3048,8 +3046,8 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>53</v>
+      <c r="B3" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="C3">
         <v>30.671368000000001</v>
@@ -3062,8 +3060,8 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>54</v>
+      <c r="B4" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="C4">
         <v>31.770282999999999</v>
@@ -3076,8 +3074,8 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>55</v>
+      <c r="B5" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="C5">
         <v>30.516787999999998</v>
@@ -3090,8 +3088,8 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>56</v>
+      <c r="B6" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="C6">
         <v>31.961875999999997</v>
@@ -3104,8 +3102,8 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>57</v>
+      <c r="B7" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="C7">
         <v>31.213379000000003</v>
@@ -3118,8 +3116,8 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>58</v>
+      <c r="B8" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="C8">
         <v>31.267059000000003</v>
@@ -3132,8 +3130,8 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>59</v>
+      <c r="B9" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="C9">
         <v>29.430553000000003</v>
@@ -3146,8 +3144,8 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>60</v>
+      <c r="B10" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="C10">
         <v>30.903683000000001</v>
@@ -3160,8 +3158,8 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>61</v>
+      <c r="B11" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="C11">
         <v>29.800823000000001</v>
@@ -3174,8 +3172,8 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>62</v>
+      <c r="B12" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="C12">
         <v>30.859302999999997</v>
